--- a/高血脂.xlsx
+++ b/高血脂.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12405"/>
+    <workbookView windowWidth="28530" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765">
   <si>
     <t>基因</t>
   </si>
@@ -740,6 +741,1575 @@
   </si>
   <si>
     <t>MLXIPL</t>
+  </si>
+  <si>
+    <t>CAVIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuple number in the gene_disease databse for all the terms: 435 </t>
+  </si>
+  <si>
+    <t>LPL     ID:4023 -       1</t>
+  </si>
+  <si>
+    <t>ORPHANET:309015 (ORPHANET)      familial lipoprotein lipase deficiency  hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0201048532921253</t>
+  </si>
+  <si>
+    <t>PUBMED:14669227 14669227 9678774 (GAD)  hyperlipidemia  hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>umls:C0020474 (DISGENET)        hyperlipidemia familial combined        hyperlipidemia  0.0201687340666013</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0214023590518004</t>
+  </si>
+  <si>
+    <t>ORPHANET:70470 (ORPHANET)       hyperlipoproteinemia type 5     hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>OMIM:238600 (CLINVAR)   hyperlipoproteinemia type i     hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C0023817 (DISGENET)        hyperlipoproteinemia type i     hyperlipidemia  0.0472036308310326</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0196800716236445</t>
+  </si>
+  <si>
+    <t>PUBMED:23505323 (GWAS)  hypertriglyceridemia    hyperlipidemia  2.57391762096702e-12</t>
+  </si>
+  <si>
+    <t>umls:C0020557 (DISGENET)        hypertriglyceridemia    hyperlipidemia  0.0268736317524182</t>
+  </si>
+  <si>
+    <t>PUBMED:11593500 11593500 20657596 (GAD) hypertriglyceridemia    hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>OMIM:238600 (GENE_REVIEWS)      lipoprotein lipase deficiency   hyperlipidemia  0.128695881048351</t>
+  </si>
+  <si>
+    <t>HP:0031028 (HPO_PHENOTYPE_GENE) Lactescent serum        hyperlipidemia  0.257391762096702</t>
+  </si>
+  <si>
+    <t>ABCG5   ID:64240 -      0.835567975936862</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00647540415929997</t>
+  </si>
+  <si>
+    <t>PUBMED:14703505 14703505 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>OMIM:210250 (CLINVAR)   sitosterolemia  hyperlipidemia  0.0482609553931317</t>
+  </si>
+  <si>
+    <t>ORPHANET:2882 (ORPHANET)        sitosterolemia  hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>OMIM:210250 (GENE_REVIEWS)      sitosterolemia  hyperlipidemia  0.257391762096702</t>
+  </si>
+  <si>
+    <t>umls:C0342907 (DISGENET)        sitosterolemia  hyperlipidemia  0.0450435583669229</t>
+  </si>
+  <si>
+    <t>HP:0003077 (HPO_PHENOTYPE_GENE) Hyperlipidemia  hyperlipidemia  0.257391762096702</t>
+  </si>
+  <si>
+    <t>ABCG8   ID:64241 -      0.82870954832206</t>
+  </si>
+  <si>
+    <t>GPIHBP1 ID:338328 -     0.625094279377704</t>
+  </si>
+  <si>
+    <t>ORPHANET:411 (ORPHANET) hyperlipoproteinemia type 1     hyperlipidemia  0.183851258640501</t>
+  </si>
+  <si>
+    <t>ORPHANET:70470 (ORPHANET)       hyperlipoproteinemia type 5     hyperlipidemia  0.183851258640501</t>
+  </si>
+  <si>
+    <t>CETP    ID:1071 -       0.612885544379982</t>
+  </si>
+  <si>
+    <t>ORPHANET:79506 (ORPHANET)       cholesterol ester transfer protein deficiency   hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>OMIM:143470 (CLINVAR)   hyperalphalipoproteinemia 1     hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C3149462 (DISGENET)        hyperalphalipoproteinemia 1     hyperlipidemia  0.0393388054702113</t>
+  </si>
+  <si>
+    <t>PUBMED:11398140 11398140 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0196032251895886</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0200234134446829</t>
+  </si>
+  <si>
+    <t>umls:C0020476 (DISGENET)        hyperlipoproteinemias   hyperlipidemia  0.0199703720164403</t>
+  </si>
+  <si>
+    <t>umls:C0020557 (DISGENET)        hypertriglyceridemia    hyperlipidemia  0.0194664472072103</t>
+  </si>
+  <si>
+    <t>APOE    ID:348 -        0.591228383603937</t>
+  </si>
+  <si>
+    <t>umls:C1412481 (DISGENET)        apolipoprotein e        hyperlipidemia  0.00849392814919116</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00987813573514491</t>
+  </si>
+  <si>
+    <t>PUBMED:21909108 21909108 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:1864973 1864973 (GAD)    familial dysbetalipoproteinemia hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0229134892279098</t>
+  </si>
+  <si>
+    <t>ORPHANET:412 (ORPHANET) hyperlipidemia type 3   hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0306203315147284</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0196501911426786</t>
+  </si>
+  <si>
+    <t>umls:C0020479 (DISGENET)        hyperlipoproteinemia type iii   hyperlipidemia  0.0207665907176634</t>
+  </si>
+  <si>
+    <t>PUBMED:15809899 15809899 (GAD)  lipid metabolism disorders hyperlipidemia       hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>LIPC    ID:3990 -       0.550051599494735</t>
+  </si>
+  <si>
+    <t>PUBMED:19558527 19558527 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>ORPHANET:140905 (ORPHANET)      hyperlipidemia due to hepatic triglyceride lipase deficiency    hyperlipidemia  0.220621510368601</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0264051660688579</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0193235937496797</t>
+  </si>
+  <si>
+    <t>umls:C0020476 (DISGENET)        hyperlipoproteinemias   hyperlipidemia  0.0261831694705779</t>
+  </si>
+  <si>
+    <t>APOC3   ID:345 -        0.537286212623742</t>
+  </si>
+  <si>
+    <t>umls:C3151467 (DISGENET)        apolipoprotein c iii deficiency hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PUBMED:10357835 10357835 (GAD)  familial combined hyperlipidemia        hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020476 (DISGENET)        hyperlipoproteinemias   hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PUBMED:7705829 7705829 16864937 (GAD)   hypertriglyceridemia    hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>RAI1    ID:10743 -      0.51533993562753</t>
+  </si>
+  <si>
+    <t>OMIM:182290 (CLINVAR)   smith magenis syndrome  hyperlipidemia  0.0241304776965658</t>
+  </si>
+  <si>
+    <t>ORPHANET:819 (ORPHANET) smith magenis syndrome  hyperlipidemia  0.0919256293202506</t>
+  </si>
+  <si>
+    <t>OMIM:182290 (GENE_REVIEWS)      smith magenis syndrome  hyperlipidemia  0.128695881048351</t>
+  </si>
+  <si>
+    <t>umls:C0795864 (DISGENET)        smith magenis syndrome  hyperlipidemia  0.0131961854656602</t>
+  </si>
+  <si>
+    <t>LDLR    ID:3949 -       0.495667663932233</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00748754717788226</t>
+  </si>
+  <si>
+    <t>OMIM:143890 (CLINVAR)   familial hypercholesterolemia   hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>PUBMED:8829662 8829662 2901393 (GAD)    familial hypercholesterolemia   hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0331854624887648</t>
+  </si>
+  <si>
+    <t>OMIM:143890 (GENE_REVIEWS)      hypercholesterolemia familial   hyperlipidemia  0.0857972540322339</t>
+  </si>
+  <si>
+    <t>umls:C0745103 (DISGENET)        hypercholesterolemia familial   hyperlipidemia  0.0454470021939778</t>
+  </si>
+  <si>
+    <t>PUBMED:11860839 11860839 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0200749727468114</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0291127216857493</t>
+  </si>
+  <si>
+    <t>APOB    ID:338 -        0.492345114924834</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.030052696388717</t>
+  </si>
+  <si>
+    <t>OMIM:144010 (CLINVAR)   hypercholesterolemia autosomal dominant type b  hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>PUBMED:7627691 7627691 (GAD)    hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0208838160635299</t>
+  </si>
+  <si>
+    <t>umls:C1704417 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0394348634966944</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0226273086476582</t>
+  </si>
+  <si>
+    <t>umls:C0020557 (DISGENET)        hypertriglyceridemia    hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PUBMED:20657596 20657596 (GAD)  hypertriglyceridemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>LMF1    ID:64788 -      0.460547402894456</t>
+  </si>
+  <si>
+    <t>PSMB8   ID:5696 -       0.433653450864655</t>
+  </si>
+  <si>
+    <t>umls:C3278560 (DISGENET)        autoinflammation lipodystrophy and dermatosis syndrome  hyperlipidemia  0.00638312578413002</t>
+  </si>
+  <si>
+    <t>ORPHANET:324999 (ORPHANET)      jmp syndrome    hyperlipidemia  0.0849392814919116</t>
+  </si>
+  <si>
+    <t>ORPHANET:2615 (ORPHANET)        nakajo nishimura syndrome       hyperlipidemia  0.0849392814919116</t>
+  </si>
+  <si>
+    <t>PCSK9   ID:255738 -     0.420877237422611</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0224179366648734</t>
+  </si>
+  <si>
+    <t>PUBMED:15099351 15099351 16875509 (GAD) hypercholesterolemia    hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>OMIM:603776 (CLINVAR)   hypercholesterolemia autosomal dominant 3       hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C1863551 (DISGENET)        hypercholesterolemia autosomal dominant 3       hyperlipidemia  0.0386087643145053</t>
+  </si>
+  <si>
+    <t>SMPD1   ID:6609 -       0.392950120578324</t>
+  </si>
+  <si>
+    <t>OMIM:607616 (CLINVAR)   niemann pick disease type b     hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>ORPHANET:77293 (ORPHANET)       niemann pick disease type b     hyperlipidemia  0.0728050984216385</t>
+  </si>
+  <si>
+    <t>OMIM:607616 (GENE_REVIEWS)      niemann pick disease type b     hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>umls:C0268243 (DISGENET)        niemann pick disease type b     hyperlipidemia  0.0149749142207833</t>
+  </si>
+  <si>
+    <t>SLC37A4 ID:2542 -       0.370025067715438</t>
+  </si>
+  <si>
+    <t>OMIM:232200 (GENE_REVIEWS)      glycogen storage disease ia     hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>OMIM:232220 (GENE_REVIEWS)      glycogen storage disease ib     hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>umls:C0268146 (DISGENET)        glycogen storage disease ib     hyperlipidemia  0.0149531319030366</t>
+  </si>
+  <si>
+    <t>umls:C0342749 (DISGENET)        glycogen storage disease ic     hyperlipidemia  0.0127408922237868</t>
+  </si>
+  <si>
+    <t>PRF1    ID:5551 -       0.367812828036187</t>
+  </si>
+  <si>
+    <t>OMIM:267700 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 1   hyperlipidemia  0.0169878562983823</t>
+  </si>
+  <si>
+    <t>OMIM:603553 (CLINVAR)   hemophagocytic lymphohistiocytosis familial 2   hyperlipidemia  0.010617410186489</t>
+  </si>
+  <si>
+    <t>OMIM:603553 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 2   hyperlipidemia  0.0169878562983823</t>
+  </si>
+  <si>
+    <t>umls:C1863727 (DISGENET)        hemophagocytic lymphohistiocytosis familial 2   hyperlipidemia  0.0148643742610845</t>
+  </si>
+  <si>
+    <t>OMIM:608898 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 3   hyperlipidemia  0.0169878562983823</t>
+  </si>
+  <si>
+    <t>OMIM:603552 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 4   hyperlipidemia  0.0169878562983823</t>
+  </si>
+  <si>
+    <t>OMIM:613101 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 5   hyperlipidemia  0.0169878562983823</t>
+  </si>
+  <si>
+    <t>ALMS1   ID:7840 -       0.361642437439153</t>
+  </si>
+  <si>
+    <t>OMIM:203800 (CLINVAR)   alstrom syndrome        hyperlipidemia  0.010617410186489</t>
+  </si>
+  <si>
+    <t>OMIM:203800 (GENE_REVIEWS)      alstrom syndrome        hyperlipidemia  0.0849392814919116</t>
+  </si>
+  <si>
+    <t>umls:C0268425 (DISGENET)        alstrom syndrome        hyperlipidemia  0.00869398366405077</t>
+  </si>
+  <si>
+    <t>BSCL2   ID:26580 -      0.357239796670674</t>
+  </si>
+  <si>
+    <t>OMIM:608594 (GENE_REVIEWS)      lipodystrophy congenital generalized type 1     hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>OMIM:269700 (GENE_REVIEWS)      lipodystrophy congenital generalized type 2     hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>umls:C1720863 (DISGENET)        lipodystrophy congenital generalized type 2     hyperlipidemia  0.0149087530820606</t>
+  </si>
+  <si>
+    <t>AGPAT2  ID:10555 -      0.357208097521935</t>
+  </si>
+  <si>
+    <t>umls:C1720862 (DISGENET)        lipodystrophy congenital generalized type 1     hyperlipidemia  0.0148770539333211</t>
+  </si>
+  <si>
+    <t>UNC13D  ID:201294 -     0.356146356503286</t>
+  </si>
+  <si>
+    <t>OMIM:608898 (CLINVAR)   hemophagocytic lymphohistiocytosis familial 3   hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C1837174 (DISGENET)        hemophagocytic lymphohistiocytosis familial 3   hyperlipidemia  0.00850660782142782</t>
+  </si>
+  <si>
+    <t>STX11   ID:8676 -       0.356133676831049</t>
+  </si>
+  <si>
+    <t>OMIM:603552 (CLINVAR)   hemophagocytic lymphohistiocytosis familial 4   hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C1863728 (DISGENET)        hemophagocytic lymphohistiocytosis familial 4   hyperlipidemia  0.00849392814919116</t>
+  </si>
+  <si>
+    <t>STXBP2  ID:6813 -       0.354010194793751</t>
+  </si>
+  <si>
+    <t>OMIM:613101 (CLINVAR)   hemophagocytic lymphohistiocytosis familial 5   hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C2751293 (DISGENET)        hemophagocytic lymphohistiocytosis familial 5   hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>LCAT    ID:3931 -       0.349666351257935</t>
+  </si>
+  <si>
+    <t>OMIM:136120 (CLINVAR)   fish eye disease        hyperlipidemia  0.010617410186489</t>
+  </si>
+  <si>
+    <t>ORPHANET:79292 (ORPHANET)       fish eye disease        hyperlipidemia  0.0728050984216385</t>
+  </si>
+  <si>
+    <t>umls:C0342895 (DISGENET)        fish eye disease        hyperlipidemia  0.00872568281279017</t>
+  </si>
+  <si>
+    <t>PUBMED:8820100 8820100 (GAD)    fish eye disease        hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>FLII    ID:2314 -       0.349317391416953</t>
+  </si>
+  <si>
+    <t>G6PC    ID:2538 -       0.342331043588614</t>
+  </si>
+  <si>
+    <t>ABCA1   ID:19 - 0.341117446091999</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00779418429080971</t>
+  </si>
+  <si>
+    <t>PUBMED:15696473 15696473 (GAD)  heart disease ischemic atherosclerosis coronary hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0201708603156</t>
+  </si>
+  <si>
+    <t>PUBMED:12624133 12624133 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0745103 (DISGENET)        hypercholesterolemia familial   hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0196032251895886</t>
+  </si>
+  <si>
+    <t>DCAF17  ID:80067 -      0.324439463385461</t>
+  </si>
+  <si>
+    <t>ORPHANET:3464 (ORPHANET)        woodhouse sakati syndrome       hyperlipidemia  0.0606709153513656</t>
+  </si>
+  <si>
+    <t>umls:C0342286 (DISGENET)        woodhouse sakati syndrome       hyperlipidemia  0.00637678593739428</t>
+  </si>
+  <si>
+    <t>APOA5   ID:116519 -     0.324007476160416</t>
+  </si>
+  <si>
+    <t>PUBMED:17157483 17157483 (GAD)  cardiovascular disease cholesterol cholesterol hdl cholesterol vldl hyperlipidemia intimia media thickness lipoprotein triglycerides    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>OMIM:145750 (CLINVAR)   familial hypertriglyceridemia   hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C0020479 (DISGENET)        hyperlipoproteinemia type iii   hyperlipidemia  0.0193620169988817</t>
+  </si>
+  <si>
+    <t>umls:C0020480 (DISGENET)        hyperlipoproteinemia type iv    hyperlipidemia  0.0193235937496797</t>
+  </si>
+  <si>
+    <t>umls:C0020481 (DISGENET)        hyperlipoproteinemia type v     hyperlipidemia  0.0193235937496797</t>
+  </si>
+  <si>
+    <t>PUBMED:20657596 27599772 27599772 (GWAS)        hypertriglyceridemia    hyperlipidemia  2.57391762096702e-25</t>
+  </si>
+  <si>
+    <t>umls:C0020557 (DISGENET)        hypertriglyceridemia    hyperlipidemia  0.0283322175237775</t>
+  </si>
+  <si>
+    <t>PUBMED:12915450 12915450 18441017 (GAD) hypertriglyceridemia    hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>LDLRAP1 ID:26119 -      0.318810479738466</t>
+  </si>
+  <si>
+    <t>OMIM:603813 (CLINVAR)   hypercholesterolemia autosomal recessive        hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C1863512 (DISGENET)        hypercholesterolemia autosomal recessive        hyperlipidemia  0.0453317325107198</t>
+  </si>
+  <si>
+    <t>JAG1    ID:182 -        0.306687350169888</t>
+  </si>
+  <si>
+    <t>OMIM:118450 (GENE_REVIEWS)      alagille syndrome       hyperlipidemia  0.0283130938306372</t>
+  </si>
+  <si>
+    <t>umls:C0085280 (DISGENET)        alagille syndrome       hyperlipidemia  0.0070534632597974</t>
+  </si>
+  <si>
+    <t>PUBMED:12427653 12427653 (GAD)  alagille syndrome       hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>OMIM:118450 (CLINVAR)   alagille syndrome 1     hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C1956125 (DISGENET)        alagille syndrome 1     hyperlipidemia  0.00849392814919116</t>
+  </si>
+  <si>
+    <t>SLC25A13        ID:10165 -      0.299861402842658</t>
+  </si>
+  <si>
+    <t>OMIM:605814 (GENE_REVIEWS)      citrullinemia type ii neonatal onset    hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>XIAP    ID:331 -        0.299861402842658</t>
+  </si>
+  <si>
+    <t>OMIM:300635 (GENE_REVIEWS)      lymphoproliferative syndrome x linked 2 hyperlipidemia  0.0424696407459558</t>
+  </si>
+  <si>
+    <t>APOC2   ID:344 -        0.296115796094465</t>
+  </si>
+  <si>
+    <t>umls:C1720779 (DISGENET)        apolipoprotein c ii deficiency  hyperlipidemia  0.0193620169988817</t>
+  </si>
+  <si>
+    <t>umls:C0023817 (DISGENET)        hyperlipoproteinemia type i     hyperlipidemia  0.0193620169988817</t>
+  </si>
+  <si>
+    <t>LMNA    ID:4000 -       0.290150335457049</t>
+  </si>
+  <si>
+    <t>umls:C1720860 (DISGENET)        lipodystrophy familial partial type 2   hyperlipidemia  0.0127852710447628</t>
+  </si>
+  <si>
+    <t>ORPHANET:90153 (ORPHANET)       mandibuloacral dysplasia        hyperlipidemia  0.0169708854129694</t>
+  </si>
+  <si>
+    <t>umls:C0432291 (DISGENET)        mandibuloacral dysplasia        hyperlipidemia  0.00300241690261442</t>
+  </si>
+  <si>
+    <t>PPARG   ID:5468 -       0.285799900916473</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00710358030257837</t>
+  </si>
+  <si>
+    <t>umls:C1720860 (DISGENET)        lipodystrophy familial partial type 2   hyperlipidemia  0.00638312578413002</t>
+  </si>
+  <si>
+    <t>umls:C1720861 (DISGENET)        lipodystrophy familial partial type 3   hyperlipidemia  0.0149214327330624</t>
+  </si>
+  <si>
+    <t>TFG     ID:10342 -      0.283213317812648</t>
+  </si>
+  <si>
+    <t>ORPHANET:90117 (ORPHANET)       hereditary motor and sensory neuropathy okinawa type    hyperlipidemia  0.0141424045108078</t>
+  </si>
+  <si>
+    <t>OMIM:604484 (CLINVAR)   neuropathy hereditary motor and sensory okinawa type    hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C1858338 (DISGENET)        neuropathy hereditary motor and sensory okinawa type    hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>ZMPSTE24        ID:10269 -      0.275741531949475</t>
+  </si>
+  <si>
+    <t>OMIM:608612 (CLINVAR)   mandibuloacral dysplasia        hyperlipidemia  0.00123746039469568</t>
+  </si>
+  <si>
+    <t>ORPHANET:90154 (ORPHANET)       mandibuloacral dysplasia        hyperlipidemia  0.0141424045108078</t>
+  </si>
+  <si>
+    <t>umls:C1837756 (DISGENET)        mandibuloacral dysplasia        hyperlipidemia  0.00296990494726963</t>
+  </si>
+  <si>
+    <t>PHKG2   ID:5261 -       0.275441359413733</t>
+  </si>
+  <si>
+    <t>OMIM:613027 (CLINVAR)   glycogen storage disease ixc    hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C2751643 (DISGENET)        glycogen storage disease ixc    hyperlipidemia  0.0127408922237868</t>
+  </si>
+  <si>
+    <t>FECH    ID:2235 -       0.273340511507767</t>
+  </si>
+  <si>
+    <t>umls:C0162568 (DISGENET)        protoporphyria erythropoietic   hyperlipidemia  0.0159487494110645</t>
+  </si>
+  <si>
+    <t>GK      ID:2710 -       0.2723195346765</t>
+  </si>
+  <si>
+    <t>umls:C0268418 (DISGENET)        hyperglycerolemia       hyperlipidemia  0.0149277725797982</t>
+  </si>
+  <si>
+    <t>CPT1A   ID:1374 -       0.271320793079454</t>
+  </si>
+  <si>
+    <t>PUBMED:19181627 19181627 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>OMIM:255120 (CLINVAR)   carnitine palmitoyltransferase i deficiency     hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C0342789 (DISGENET)        carnitine palmitoyltransferase i deficiency     hyperlipidemia  0.00849392814919116</t>
+  </si>
+  <si>
+    <t>HP:0008279 (HPO_PHENOTYPE_GENE) Transient hyperlipidemia        hyperlipidemia  0.257391762096702</t>
+  </si>
+  <si>
+    <t>CAV1    ID:857 -        0.26907091330184</t>
+  </si>
+  <si>
+    <t>OMIM:612526 (CLINVAR)   lipodystrophy congenital generalized type 3     hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C2675861 (DISGENET)        lipodystrophy congenital generalized type 3     hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>TTPA    ID:7274 -       0.263762208208595</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>PPP1R3A ID:5506 -       0.263762208208595</t>
+  </si>
+  <si>
+    <t>umls:C1720861 (DISGENET)        lipodystrophy familial partial type 3   hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>ACTN4   ID:81 - 0.262700467189946</t>
+  </si>
+  <si>
+    <t>OMIM:603278 (CLINVAR)   focal segmental glomerulosclerosis 1    hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>CYP7A1  ID:1581 -       0.257774785552204</t>
+  </si>
+  <si>
+    <t>PUBMED:15241483 15241483 (GAD)  hypercholesterolemia hyperlipidemia hypertriglyceridemia dysbetalipoproteinemia hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>NPHS2   ID:7827 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>LEPR    ID:3953 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>FOS     ID:2353 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>EMD     ID:2010 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>ALB     ID:213 -        0.257391762096702</t>
+  </si>
+  <si>
+    <t>CYP19A1 ID:1588 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>AGL     ID:178 -        0.257391762096702</t>
+  </si>
+  <si>
+    <t>TMEM43  ID:79188 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>MC4R    ID:4160 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>GPD1    ID:2819 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>DEAF1   ID:10522 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>SYNE2   ID:23224 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>LIPE    ID:3991 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>NSMCE2  ID:286053 -     0.257391762096702</t>
+  </si>
+  <si>
+    <t>PIGH    ID:5283 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>LEP     ID:3952 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>XRCC4   ID:7518 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>SYNE1   ID:23345 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>RSPO1   ID:284654 -     0.257391762096702</t>
+  </si>
+  <si>
+    <t>DGAT1   ID:8694 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>PYGL    ID:5836 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>GLA     ID:2717 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>CEP19   ID:84984 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>NPHS1   ID:4868 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>RAB27A  ID:5873 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>PHKA2   ID:5256 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>SLC29A3 ID:55315 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>GYS2    ID:2998 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>MYO5A   ID:4644 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>LIPA    ID:3988 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>AKT2    ID:208 -        0.257391762096702</t>
+  </si>
+  <si>
+    <t>PNPLA2  ID:57104 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>FHL1    ID:2273 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>HMBS    ID:3145 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>CIDEC   ID:63924 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>POLD1   ID:5424 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>IQSEC2  ID:23096 -      0.257391762096702</t>
+  </si>
+  <si>
+    <t>PLIN1   ID:5346 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>SGPL1   ID:8879 -       0.257391762096702</t>
+  </si>
+  <si>
+    <t>LRP6    ID:4040 -       0.201900855957533</t>
+  </si>
+  <si>
+    <t>OMIM:610947 (CLINVAR)   coronary artery disease autosomal dominant 2    hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C1970440 (DISGENET)        coronary artery disease autosomal dominant 2    hyperlipidemia  0.0127408922237868</t>
+  </si>
+  <si>
+    <t>ORPHANET:94062 (ORPHANET)       coronary artery disease hyperlipidemia hypertension diabetes osteoporosis       hyperlipidemia  0.183851258640501</t>
+  </si>
+  <si>
+    <t>CREB3L3 ID:84699 -      0.183851258640501</t>
+  </si>
+  <si>
+    <t>CD46    ID:4179 -       0.0913097276038052</t>
+  </si>
+  <si>
+    <t>OMIM:235400 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>OMIM:612922 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>OMIM:612923 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>OMIM:612924 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>OMIM:612925 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>OMIM:612926 (GENE_REVIEWS)      hemolytic uremic syndrome atypical      hyperlipidemia  0.0141565469153187</t>
+  </si>
+  <si>
+    <t>umls:C2752040 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>CFH     ID:3075 -       0.0913097276038052</t>
+  </si>
+  <si>
+    <t>umls:C2749604 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>CFB     ID:629 -        0.0913097276038052</t>
+  </si>
+  <si>
+    <t>umls:C2752038 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>CFI     ID:3426 -       0.0913097276038052</t>
+  </si>
+  <si>
+    <t>umls:C2752039 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>THBD    ID:7056 -       0.0913097276038052</t>
+  </si>
+  <si>
+    <t>umls:C2752036 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>C3      ID:718 -        0.0913097276038052</t>
+  </si>
+  <si>
+    <t>umls:C2752037 (DISGENET)        hemolytic uremic syndrome atypical      hyperlipidemia  0.00637044611189337</t>
+  </si>
+  <si>
+    <t>DGKE    ID:8526 -       0.0849392814919118</t>
+  </si>
+  <si>
+    <t>CFHR4   ID:10877 -      0.0849392814919118</t>
+  </si>
+  <si>
+    <t>CFHR1   ID:3078 -       0.0849392814919118</t>
+  </si>
+  <si>
+    <t>CFHR3   ID:10878 -      0.0849392814919118</t>
+  </si>
+  <si>
+    <t>PON1    ID:5444 -       0.0743986403170172</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00826831208993522</t>
+  </si>
+  <si>
+    <t>PUBMED:12196500 12196500 12204800 11555845 11472729 19371607 (GAD)      atherosclerosis hyperlipidemia  0.000379193220946035</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0200280068580693</t>
+  </si>
+  <si>
+    <t>PUBMED:17416287 17416287 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0196009284828953</t>
+  </si>
+  <si>
+    <t>umls:C0020476 (DISGENET)        hyperlipoproteinemias   hyperlipidemia  0.0257391762096702</t>
+  </si>
+  <si>
+    <t>PPARA   ID:5465 -       0.059054882849152</t>
+  </si>
+  <si>
+    <t>PUBMED:11409711 11409711 (GAD)  diabetes type 2 hyperlipidemia obesity  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:12468272 12468272 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0196800716236445</t>
+  </si>
+  <si>
+    <t>APOA2   ID:336 -        0.0550979844934772</t>
+  </si>
+  <si>
+    <t>PUBMED:9489233 9489233 (GAD)    hypertriglyceridemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>SH2D1A  ID:4068 -       0.0424696407459558</t>
+  </si>
+  <si>
+    <t>USF1    ID:7391 -       0.0369208944762538</t>
+  </si>
+  <si>
+    <t>OMIM:602491 (CLINVAR)   hyperlipidemia combined 1       hyperlipidemia  0.0160869851310439</t>
+  </si>
+  <si>
+    <t>umls:C0020474 (DISGENET)        hyperlipidemia familial combined        hyperlipidemia  0.0208339093452099</t>
+  </si>
+  <si>
+    <t>ITIH4   ID:3700 -       0.0357743907437976</t>
+  </si>
+  <si>
+    <t>PUBMED:14661079 14661079 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>LIPI    ID:149998 -     0.0353913672882966</t>
+  </si>
+  <si>
+    <t>umls:C0020480 (DISGENET)        hyperlipoproteinemia type iv    hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PPP1R17 ID:10842 -      0.0353913672882966</t>
+  </si>
+  <si>
+    <t>EPHX2   ID:2053 -       0.0353913672882966</t>
+  </si>
+  <si>
+    <t>GHR     ID:2690 -       0.0353913672882966</t>
+  </si>
+  <si>
+    <t>NOTCH2  ID:4853 -       0.0347750604044918</t>
+  </si>
+  <si>
+    <t>umls:C0085280 (DISGENET)        alagille syndrome       hyperlipidemia  0.00646196657385456</t>
+  </si>
+  <si>
+    <t>CRP     ID:1401 -       0.0271287497703842</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00782436761313161</t>
+  </si>
+  <si>
+    <t>HMGCR   ID:3156 -       0.0264774190895275</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0264774190895275</t>
+  </si>
+  <si>
+    <t>APOA4   ID:337 -        0.0264333543842182</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00653522545128693</t>
+  </si>
+  <si>
+    <t>PUBMED:11941585 11941585 11592042 (GAD) hypertriglyceridemia    hyperlipidemia  0.000574535183251568</t>
+  </si>
+  <si>
+    <t>VCAM1   ID:7412 -       0.0262967313890945</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00691550279778584</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0193812285913087</t>
+  </si>
+  <si>
+    <t>ICAM1   ID:3383 -       0.0262079632172454</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00690358105999275</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>LPA     ID:4018 -       0.0259984876484331</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00665568224197843</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0193428054064546</t>
+  </si>
+  <si>
+    <t>FASLG   ID:356 -        0.0257283097356321</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00642392757837942</t>
+  </si>
+  <si>
+    <t>umls:C0020474 (DISGENET)        hyperlipidemia familial combined        hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>GCKR    ID:2646 -       0.0196874060631893</t>
+  </si>
+  <si>
+    <t>PUBMED:20657596 27599772 (GWAS) hypertriglyceridemia    hyperlipidemia  4.50435583669229e-10</t>
+  </si>
+  <si>
+    <t>RP1     ID:6101 -       0.0196874056127537</t>
+  </si>
+  <si>
+    <t>PUBMED:12764676 12764676 (GAD)  hypertriglyceridemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>SELE    ID:6401 -       0.0196669355063701</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0196669355063701</t>
+  </si>
+  <si>
+    <t>INS     ID:3630 -       0.0196560438176834</t>
+  </si>
+  <si>
+    <t>PUBMED:6128593 6128593 3914802 (GAD)    atherosclerosis hyperlipidemia  0.000189596610473017</t>
+  </si>
+  <si>
+    <t>PON2    ID:5445 -       0.019488414739197</t>
+  </si>
+  <si>
+    <t>PUBMED:19371607 19371607 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>umls:C0020445 (DISGENET)        hyperlipoproteinemia type ii    hyperlipidemia  0.0193620169988817</t>
+  </si>
+  <si>
+    <t>PLTP    ID:5360 -       0.0194664472072103</t>
+  </si>
+  <si>
+    <t>IRS1    ID:3667 -       0.0193235937496797</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0193235937496797</t>
+  </si>
+  <si>
+    <t>NR4A3   ID:8013 -       0.0193235937496797</t>
+  </si>
+  <si>
+    <t>umls:C0020443 (DISGENET)        hypercholesterolemia    hyperlipidemia  0.0193235937496797</t>
+  </si>
+  <si>
+    <t>ADRB3   ID:155 -        0.0193235937496797</t>
+  </si>
+  <si>
+    <t>EDN1    ID:1906 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>COL3A1  ID:1281 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>CLQTL1  ID:54501 -      0.0193043821572526</t>
+  </si>
+  <si>
+    <t>umls:C1858233 (DISGENET)        cholesterol level quantitative trait locus 1    hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>NOX1    ID:27035 -      0.0193043821572526</t>
+  </si>
+  <si>
+    <t>ADRB2   ID:154 -        0.0193043821572526</t>
+  </si>
+  <si>
+    <t>umls:C0020473 (DISGENET)        hyperlipidemias hyperlipidemia  0.0193043821572526</t>
+  </si>
+  <si>
+    <t>APC     ID:324 -        0.0193043821572526</t>
+  </si>
+  <si>
+    <t>HTGS    ID:56797 -      0.0193043821572526</t>
+  </si>
+  <si>
+    <t>HYPLIP2 ID:28515 -      0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PPARGC1B        ID:133522 -     0.0193043821572526</t>
+  </si>
+  <si>
+    <t>GCG     ID:2641 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>CES1    ID:1066 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>LMX1B   ID:4010 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>NCF1    ID:653361 -     0.0193043821572526</t>
+  </si>
+  <si>
+    <t>NEIL1   ID:79661 -      0.0193043821572526</t>
+  </si>
+  <si>
+    <t>MYLK    ID:4638 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>IFNA2   ID:3440 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>CTF1    ID:1489 -       0.0193043821572526</t>
+  </si>
+  <si>
+    <t>PTRF    ID:284119 -     0.0138089730679366</t>
+  </si>
+  <si>
+    <t>OMIM:613327 (CLINVAR)   lipodystrophy congenital generalized type 4     hyperlipidemia  0.00530870509324448</t>
+  </si>
+  <si>
+    <t>umls:C2750069 (DISGENET)        lipodystrophy congenital generalized type 4     hyperlipidemia  0.00850026797469208</t>
+  </si>
+  <si>
+    <t>AGER    ID:177 -        0.00892134713667521</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00892134713667521</t>
+  </si>
+  <si>
+    <t>IL6     ID:3569 -       0.00749543678326727</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00736903904295193</t>
+  </si>
+  <si>
+    <t>PUBMED:18774574 18774574 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>TLR4    ID:7099 -       0.00742555544153596</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00723595883106294</t>
+  </si>
+  <si>
+    <t>PUBMED:12124407 12124407 16890863 (GAD) atherosclerosis hyperlipidemia  0.000189596610473017</t>
+  </si>
+  <si>
+    <t>TNF     ID:7124 -       0.00739515627939917</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00739515627939917</t>
+  </si>
+  <si>
+    <t>AGT     ID:183 -        0.00735587029033245</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00735587029033245</t>
+  </si>
+  <si>
+    <t>NOS3    ID:4846 -       0.00732355968392923</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00719716194361389</t>
+  </si>
+  <si>
+    <t>PUBMED:11239195 11239195 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>CCL2    ID:6347 -       0.00723168018463636</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00723168018463636</t>
+  </si>
+  <si>
+    <t>VEGFA   ID:7422 -       0.00696340237321454</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00696340237321454</t>
+  </si>
+  <si>
+    <t>ALOX15  ID:246 -        0.00693804304997607</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00693804304997607</t>
+  </si>
+  <si>
+    <t>GSTM1   ID:2944 -       0.00691495746636384</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00691495746636384</t>
+  </si>
+  <si>
+    <t>ADIPOQ  ID:9370 -       0.00690325597612766</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00690325597612766</t>
+  </si>
+  <si>
+    <t>CYBA    ID:1535 -       0.00689256369095336</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00676616595063801</t>
+  </si>
+  <si>
+    <t>PUBMED:12547880 12547880 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>SERPINE1        ID:5054 -       0.00683314125360864</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00683314125360864</t>
+  </si>
+  <si>
+    <t>PTGS2   ID:5743 -       0.00679228318708526</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00679228318708526</t>
+  </si>
+  <si>
+    <t>ALOX5   ID:240 -        0.00678036144929217</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00678036144929217</t>
+  </si>
+  <si>
+    <t>ALOX5AP ID:241 -        0.00677477951576519</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00677477951576519</t>
+  </si>
+  <si>
+    <t>ESR1    ID:2099 -       0.00672612204836255</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00672612204836255</t>
+  </si>
+  <si>
+    <t>MMP1    ID:4312 -       0.00668098531417774</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00668098531417774</t>
+  </si>
+  <si>
+    <t>SOD1    ID:6647 -       0.00658870693900781</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00658870693900781</t>
+  </si>
+  <si>
+    <t>IFNG    ID:3458 -       0.00658036218547174</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00658036218547174</t>
+  </si>
+  <si>
+    <t>PLAT    ID:5327 -       0.00652888562578602</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00652888562578602</t>
+  </si>
+  <si>
+    <t>SOD2    ID:6648 -       0.00652330371349386</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00652330371349386</t>
+  </si>
+  <si>
+    <t>PLA2G2A ID:5320 -       0.00651268522033153</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00651268522033153</t>
+  </si>
+  <si>
+    <t>IGF2    ID:3481 -       0.00650986612804844</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00650986612804844</t>
+  </si>
+  <si>
+    <t>SIRT1   ID:23411 -      0.00648732589709304</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00648732589709304</t>
+  </si>
+  <si>
+    <t>LTA4H   ID:4048 -       0.0064563846615624</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.0064563846615624</t>
+  </si>
+  <si>
+    <t>CYP27A1 ID:1593 -       0.00644928692285273</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00644928692285273</t>
+  </si>
+  <si>
+    <t>HP      ID:3240 -       0.00642750458387125</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00642750458387125</t>
+  </si>
+  <si>
+    <t>CNR2    ID:1269 -       0.00640214526063277</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00640214526063277</t>
+  </si>
+  <si>
+    <t>STAT3   ID:6774 -       0.00639580543513186</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00639580543513186</t>
+  </si>
+  <si>
+    <t>NOS2    ID:4843 -       0.00638946560963094</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00638946560963095</t>
+  </si>
+  <si>
+    <t>SOCS3   ID:9021 -       0.00638946560963094</t>
+  </si>
+  <si>
+    <t>HSPA1B  ID:3304 -       0.00638312578413002</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00638312578413002</t>
+  </si>
+  <si>
+    <t>AHR     ID:196 -        0.00637678593739428</t>
+  </si>
+  <si>
+    <t>umls:C0004153 (DISGENET)        atherosclerosis hyperlipidemia  0.00637678593739428</t>
+  </si>
+  <si>
+    <t>PARP1   ID:142 -        0.00637678593739428</t>
+  </si>
+  <si>
+    <t>ATHS    ID:470 -        0.00637044611189337</t>
+  </si>
+  <si>
+    <t>NPC1    ID:4864 -       0.00637044611189337</t>
+  </si>
+  <si>
+    <t>TRPV1   ID:7442 -       0.00637044611189337</t>
+  </si>
+  <si>
+    <t>HMSNO   ID:50989 -      0.00637044611189337</t>
+  </si>
+  <si>
+    <t>MMP9    ID:4318 -       0.00148643028843689</t>
+  </si>
+  <si>
+    <t>umls:C0432291 (DISGENET)        mandibuloacral dysplasia        hyperlipidemia  0.00148643028843689</t>
+  </si>
+  <si>
+    <t>APOA1   ID:335 -        0.000892444651317434</t>
+  </si>
+  <si>
+    <t>PUBMED:8088507 8088507 (GAD)    atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:11737222 11737222 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:27599772 27599772 (GWAS) hypertriglyceridemia    hyperlipidemia  2.57391762096702e-25</t>
+  </si>
+  <si>
+    <t>PUBMED:12588323 12588323 (GAD)  triglycerides cholesterol ldl hyperlipidemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>ADD1    ID:118 -        0.000766046911002089</t>
+  </si>
+  <si>
+    <t>PUBMED:11775124 11775124 (GAD)  blood pressure hyperlipidemia familial combined hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:11775124 11775124 (GAD)  familial combined hyperlipidemia        hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>CYP3A5  ID:1577 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:18727922 18727922 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>INSR    ID:3643 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:11846745 11846745 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>INSIG2  ID:51141 -      0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:18570692 18570692 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>SREBF2  ID:6721 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:15211801 15211801 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>SCARB1  ID:949 -        0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:12519372 12519372 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>FABP2   ID:2169 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:16733910 16733910 (GAD)  cholesterol cholesterol hdl cholesterol ldl hyperlipidemia lipoprotein triglycerides    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>ZPR1    ID:8882 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>ACACB   ID:32 - 0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:20602615 20602615 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>BAZ1B   ID:9031 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>CYP2C9  ID:1559 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:16305587 16305587 (GAD)  hyperlipidemia  hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>ABCB1   ID:5243 -       0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:18851956 18851956 (GAD)  hypercholesterolemia    hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PCDH15  ID:65217 -      0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:19816713 19816713 (GAD)  familial combined hyperlipidemia        hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>FAS     ID:355 -        0.000383023455501045</t>
+  </si>
+  <si>
+    <t>PUBMED:19262492 19262492 (GAD)  hyperlipidemias hyperlipidemia  0.000383023455501045</t>
+  </si>
+  <si>
+    <t>ACE     ID:1636 -       0.000189596610473017</t>
+  </si>
+  <si>
+    <t>PUBMED:11696688 11696688 12196500 (GAD) atherosclerosis hyperlipidemia  0.000189596610473017</t>
+  </si>
+  <si>
+    <t>MMP13   ID:4322 -       0.000189596610473017</t>
+  </si>
+  <si>
+    <t>PUBMED:12392760 12392760 12392760 (GAD) atherosclerosis hyperlipidemia  0.000189596610473017</t>
+  </si>
+  <si>
+    <t>CMA1    ID:1215 -       0.000189596610473017</t>
+  </si>
+  <si>
+    <t>PUBMED:11696688 11696688 11696688 (GAD) atherosclerosis hyperlipidemia  0.000189596610473017</t>
+  </si>
+  <si>
+    <t>MMP2    ID:4313 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:20064641 20064641 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>MRPS36P3        ID:347704 -     0.000126397740315345</t>
+  </si>
+  <si>
+    <t>ZNF326  ID:284695 -     0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:17903303 17903303 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>UTP20   ID:27340 -      0.000126397740315345</t>
+  </si>
+  <si>
+    <t>SREBF1  ID:6720 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:11257259 11257259 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>SELPLG  ID:6404 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:19395438 19395438 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>RPL31P26        ID:100130537 -  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>CXCL12  ID:6387 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:16227796 16227796 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>FCGR2A  ID:2212 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:15583733 15583733 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>NRG1    ID:3084 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:17447867 17447867 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>MPO     ID:4353 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:12861032 12861032 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>SELP    ID:6403 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>FGB     ID:2244 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:7749821 7749821 (GAD)    atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PINX1   ID:54984 -      0.000126397740315345</t>
+  </si>
+  <si>
+    <t>VKORC1  ID:79001 -      0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:19376320 19376320 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>OLR1    ID:4973 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:18469066 18469066 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>CBS     ID:875 -        0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:10399104 10399104 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>NUMB    ID:8650 -       0.000126397740315345</t>
+  </si>
+  <si>
+    <t>SLC17A4 ID:10050 -      0.000126397740315345</t>
+  </si>
+  <si>
+    <t>RPL21P41        ID:100271159 -  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>CD14    ID:929 -        0.000126397740315345</t>
+  </si>
+  <si>
+    <t>PUBMED:16890863 16890863 (GAD)  atherosclerosis hyperlipidemia  0.000126397740315345</t>
+  </si>
+  <si>
+    <t>TRIB1   ID:10221 -      1.28695881048351e-09</t>
+  </si>
+  <si>
+    <t>PUBMED:27599772 (GWAS)  hypertriglyceridemia    hyperlipidemia  1.28695881048351e-09</t>
+  </si>
+  <si>
+    <t>CABLES1 ID:91768 -      1.28695881048351e-09</t>
+  </si>
+  <si>
+    <t>PUBMED:23505323 (GWAS)  hypertriglyceridemia    hyperlipidemia  1.28695881048351e-09</t>
+  </si>
+  <si>
+    <t>SLC18A1 ID:6570 -       2.57391762096702e-12</t>
+  </si>
+  <si>
+    <t>INTS10  ID:55174 -      2.57391762096702e-12</t>
+  </si>
+  <si>
+    <t>TBL2    ID:26608 -      1.28695881048351e-14</t>
+  </si>
+  <si>
+    <t>PUBMED:27599772 (GWAS)  hypertriglyceridemia    hyperlipidemia  1.28695881048351e-14</t>
+  </si>
+  <si>
+    <t>MLXIPL  ID:51085 -      1.28695881048351e-14</t>
+  </si>
+  <si>
+    <t>PUBMED:27599772 27599772 (GWAS) hypertriglyceridemia    hyperlipidemia  1.28695881048351e-14</t>
+  </si>
+  <si>
+    <t>限制解除</t>
   </si>
 </sst>
 </file>
@@ -748,17 +2318,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -774,8 +2350,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -789,43 +2386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -835,17 +2395,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,7 +2416,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,9 +2438,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,6 +2463,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -902,24 +2485,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,18 +2512,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -958,7 +2527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +2545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +2557,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +2605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,31 +2635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,31 +2647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +2677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,30 +2695,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1128,11 +2709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,26 +2763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,6 +2774,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,163 +2801,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1442,6 +3047,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>978</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>979</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="181946550"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,10 +3357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A242"/>
+  <dimension ref="A1:A243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1714,7 +3369,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2014,917 +3669,5402 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="4" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A978"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" ht="15" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" ht="15" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" ht="15" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" ht="15" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" ht="15" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" ht="15" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" ht="15" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" ht="15" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" ht="15" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" ht="15" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" ht="15" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" ht="15" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" ht="15" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" ht="15" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" ht="15" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" ht="15" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" ht="15" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" ht="15" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" ht="15" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" ht="15" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" ht="15" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" ht="15" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" ht="15" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" ht="15" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" ht="15" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" ht="15" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" ht="15" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" ht="15" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="163" ht="15" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" ht="15" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" ht="15" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" ht="15" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" ht="15" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" ht="15" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" ht="15" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" ht="15" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" ht="15" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" ht="15" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="187" ht="15" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" ht="15" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" ht="15" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" ht="15" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="192" ht="15" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" ht="15" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" ht="15" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" ht="15" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="197" ht="15" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="198" ht="15" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" ht="15" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="200" ht="15" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="201" ht="15" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="202" ht="15" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" ht="15" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" ht="15" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="206" ht="15" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" ht="15" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" ht="15" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209" ht="15" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" ht="15" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="212" ht="15" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" ht="15" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" ht="15" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" ht="15" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" ht="15" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" ht="15" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" ht="15" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="221" ht="15" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" ht="15" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="223" ht="15" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="224" ht="15" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" ht="15" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="226" ht="15" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="227" ht="15" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="228" ht="15" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" ht="15" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" ht="15" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" ht="15" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="233" ht="15" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" ht="15" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="236" ht="15" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="237" ht="15" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="238" ht="15" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="239" ht="15" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="240" ht="15" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="241" ht="15" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="242" ht="15" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="243" ht="15" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" ht="15" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" ht="15" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" ht="15" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248" ht="15" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="249" ht="15" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" ht="15" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" ht="15" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="253" ht="15" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="254" ht="15" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="255" ht="15" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="256" ht="15" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="257" ht="15" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" ht="15" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="260" ht="15" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="261" ht="15" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" ht="15" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="264" ht="15" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="265" ht="15" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" ht="15" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="268" ht="15" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="269" ht="15" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="270" ht="15" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" ht="15" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="273" ht="15" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="274" ht="15" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="275" ht="15" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="276" ht="15" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" ht="15" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="279" ht="15" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="280" ht="15" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="281" ht="15" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="282" ht="15" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" ht="15" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="285" ht="15" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="286" ht="15" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="287" ht="15" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="288" ht="15" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" ht="15" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="291" ht="15" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="292" ht="15" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="293" ht="15" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="294" ht="15" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" ht="15" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="297" ht="15" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="298" ht="15" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="299" ht="15" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" ht="15" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="302" ht="15" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="303" ht="15" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" ht="15" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="306" ht="15" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="307" ht="15" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" ht="15" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="310" ht="15" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="311" ht="15" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="312" ht="15" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="313" ht="15" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" ht="15" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="316" ht="15" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="317" ht="15" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="318" ht="15" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" ht="15" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="321" ht="15" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="322" ht="15" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" ht="15" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="325" ht="15" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="326" ht="15" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" ht="15" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" ht="15" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="330" ht="15" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" ht="15" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="333" ht="15" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="334" ht="15" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" ht="15" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="337" ht="15" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" ht="15" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="340" ht="15" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" ht="15" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="343" ht="15" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" ht="15" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="346" ht="15" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" ht="15" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="349" ht="15" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" ht="15" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="352" ht="15" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2"/>
+    </row>
+    <row r="354" ht="15" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="355" ht="15" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2"/>
+    </row>
+    <row r="357" ht="15" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="358" ht="15" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2"/>
+    </row>
+    <row r="360" ht="15" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="361" ht="15" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" ht="15" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="364" ht="15" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2"/>
+    </row>
+    <row r="366" ht="15" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="367" ht="15" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" ht="15" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="370" ht="15" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="2"/>
+    </row>
+    <row r="372" ht="15" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="373" ht="15" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="2"/>
+    </row>
+    <row r="375" ht="15" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="376" ht="15" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="2"/>
+    </row>
+    <row r="378" ht="15" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="379" ht="15" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="2"/>
+    </row>
+    <row r="381" ht="15" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="382" ht="15" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" ht="15" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="385" ht="15" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="2"/>
+    </row>
+    <row r="387" ht="15" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="388" ht="15" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="2"/>
+    </row>
+    <row r="390" ht="15" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="391" ht="15" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="2"/>
+    </row>
+    <row r="393" ht="15" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="394" ht="15" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="2"/>
+    </row>
+    <row r="396" ht="15" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="397" ht="15" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="2"/>
+    </row>
+    <row r="399" ht="15" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="400" ht="15" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="2"/>
+    </row>
+    <row r="402" ht="15" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="403" ht="15" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="2"/>
+    </row>
+    <row r="405" ht="15" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="406" ht="15" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="2"/>
+    </row>
+    <row r="408" ht="15" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="409" ht="15" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="2"/>
+    </row>
+    <row r="411" ht="15" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="412" ht="15" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="2"/>
+    </row>
+    <row r="414" ht="15" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="415" ht="15" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="2"/>
+    </row>
+    <row r="417" ht="15" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="418" ht="15" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="2"/>
+    </row>
+    <row r="420" ht="15" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421" ht="15" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="2"/>
+    </row>
+    <row r="423" ht="15" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="424" ht="15" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="2"/>
+    </row>
+    <row r="426" ht="15" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="427" ht="15" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="2"/>
+    </row>
+    <row r="429" ht="15" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="430" ht="15" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="2"/>
+    </row>
+    <row r="432" ht="15" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="433" ht="15" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="2"/>
+    </row>
+    <row r="435" ht="15" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="436" ht="15" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="2"/>
+    </row>
+    <row r="438" ht="15" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="439" ht="15" spans="1:1">
+      <c r="A439" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="2"/>
+    </row>
+    <row r="441" ht="15" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="442" ht="15" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="2"/>
+    </row>
+    <row r="444" ht="15" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="445" ht="15" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="2"/>
+    </row>
+    <row r="447" ht="15" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="448" ht="15" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="2"/>
+    </row>
+    <row r="450" ht="15" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="451" ht="15" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="2"/>
+    </row>
+    <row r="453" ht="15" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="454" ht="15" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" ht="15" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" ht="15" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="2"/>
+    </row>
+    <row r="458" ht="15" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="459" ht="15" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="2"/>
+    </row>
+    <row r="461" ht="15" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="462" ht="15" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="463" ht="15" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="464" ht="15" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="465" ht="15" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="466" ht="15" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="467" ht="15" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="468" ht="15" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="2"/>
+    </row>
+    <row r="470" ht="15" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="471" ht="15" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="472" ht="15" spans="1:1">
+      <c r="A472" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="473" ht="15" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="474" ht="15" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="475" ht="15" spans="1:1">
+      <c r="A475" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="476" ht="15" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="477" ht="15" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="2"/>
+    </row>
+    <row r="479" ht="15" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="480" ht="15" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="481" ht="15" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="482" ht="15" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="483" ht="15" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="484" ht="15" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="485" ht="15" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="486" ht="15" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="2"/>
+    </row>
+    <row r="488" ht="15" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="489" ht="15" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="490" ht="15" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="491" ht="15" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="492" ht="15" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="493" ht="15" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="494" ht="15" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="495" ht="15" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="2"/>
+    </row>
+    <row r="497" ht="15" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="498" ht="15" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" ht="15" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" ht="15" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="501" ht="15" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="502" ht="15" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" ht="15" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="504" ht="15" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="2"/>
+    </row>
+    <row r="506" ht="15" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="507" ht="15" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="508" ht="15" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="509" ht="15" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="510" ht="15" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="511" ht="15" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="512" ht="15" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="513" ht="15" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="2"/>
+    </row>
+    <row r="515" ht="15" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="516" ht="15" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="517" ht="15" spans="1:1">
+      <c r="A517" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="518" ht="15" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="519" ht="15" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="520" ht="15" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="521" ht="15" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="2"/>
+    </row>
+    <row r="523" ht="15" spans="1:1">
+      <c r="A523" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="524" ht="15" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="525" ht="15" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="526" ht="15" spans="1:1">
+      <c r="A526" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="527" ht="15" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="528" ht="15" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="529" ht="15" spans="1:1">
+      <c r="A529" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="2"/>
+    </row>
+    <row r="531" ht="15" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="532" ht="15" spans="1:1">
+      <c r="A532" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="533" ht="15" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="534" ht="15" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="535" ht="15" spans="1:1">
+      <c r="A535" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="536" ht="15" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="537" ht="15" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="2"/>
+    </row>
+    <row r="539" ht="15" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="540" ht="15" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="541" ht="15" spans="1:1">
+      <c r="A541" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="542" ht="15" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="543" ht="15" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="544" ht="15" spans="1:1">
+      <c r="A544" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="545" ht="15" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="2"/>
+    </row>
+    <row r="547" ht="15" spans="1:1">
+      <c r="A547" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="548" ht="15" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="549" ht="15" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="550" ht="15" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="551" ht="15" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="552" ht="15" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="553" ht="15" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="2"/>
+    </row>
+    <row r="555" ht="15" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="556" ht="15" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="557" ht="15" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="558" ht="15" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="559" ht="15" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="560" ht="15" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="2"/>
+    </row>
+    <row r="562" ht="15" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="563" ht="15" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="564" ht="15" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="565" ht="15" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="566" ht="15" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="2"/>
+    </row>
+    <row r="568" ht="15" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="569" ht="15" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="2"/>
+    </row>
+    <row r="571" ht="15" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="572" ht="15" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="573" ht="15" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="2"/>
+    </row>
+    <row r="575" ht="15" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="576" ht="15" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="577" ht="15" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="578" ht="15" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="2"/>
+    </row>
+    <row r="580" ht="15" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="581" ht="15" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="582" ht="15" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="2"/>
+    </row>
+    <row r="584" ht="15" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="585" ht="15" spans="1:1">
+      <c r="A585" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="586" ht="15" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="2"/>
+    </row>
+    <row r="588" ht="15" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="589" ht="15" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="590" ht="15" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="2"/>
+    </row>
+    <row r="592" ht="15" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="593" ht="15" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="594" ht="15" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="2"/>
+    </row>
+    <row r="596" ht="15" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="597" ht="15" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="598" ht="15" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="2"/>
+    </row>
+    <row r="600" ht="15" spans="1:1">
+      <c r="A600" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="601" ht="15" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="602" ht="15" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="2"/>
+    </row>
+    <row r="604" ht="15" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="605" ht="15" spans="1:1">
+      <c r="A605" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="2"/>
+    </row>
+    <row r="607" ht="15" spans="1:1">
+      <c r="A607" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="608" ht="15" spans="1:1">
+      <c r="A608" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="609" ht="15" spans="1:1">
+      <c r="A609" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="610" ht="15" spans="1:1">
+      <c r="A610" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="2"/>
+    </row>
+    <row r="612" ht="15" spans="1:1">
+      <c r="A612" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="613" ht="15" spans="1:1">
+      <c r="A613" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="614" ht="15" spans="1:1">
+      <c r="A614" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="2"/>
+    </row>
+    <row r="616" ht="15" spans="1:1">
+      <c r="A616" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="617" ht="15" spans="1:1">
+      <c r="A617" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="618" ht="15" spans="1:1">
+      <c r="A618" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="2"/>
+    </row>
+    <row r="620" ht="15" spans="1:1">
+      <c r="A620" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="621" ht="15" spans="1:1">
+      <c r="A621" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="622" ht="15" spans="1:1">
+      <c r="A622" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="2"/>
+    </row>
+    <row r="624" ht="15" spans="1:1">
+      <c r="A624" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="625" ht="15" spans="1:1">
+      <c r="A625" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="626" ht="15" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="2"/>
+    </row>
+    <row r="628" ht="15" spans="1:1">
+      <c r="A628" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="629" ht="15" spans="1:1">
+      <c r="A629" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="630" ht="15" spans="1:1">
+      <c r="A630" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="631" ht="15" spans="1:1">
+      <c r="A631" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="2"/>
+    </row>
+    <row r="633" ht="15" spans="1:1">
+      <c r="A633" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="634" ht="15" spans="1:1">
+      <c r="A634" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="635" ht="15" spans="1:1">
+      <c r="A635" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="2"/>
+    </row>
+    <row r="637" ht="15" spans="1:1">
+      <c r="A637" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="638" ht="15" spans="1:1">
+      <c r="A638" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="2"/>
+    </row>
+    <row r="640" ht="15" spans="1:1">
+      <c r="A640" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="641" ht="15" spans="1:1">
+      <c r="A641" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="642" ht="15" spans="1:1">
+      <c r="A642" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="2"/>
+    </row>
+    <row r="644" ht="15" spans="1:1">
+      <c r="A644" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="645" ht="15" spans="1:1">
+      <c r="A645" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="646" ht="15" spans="1:1">
+      <c r="A646" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="2"/>
+    </row>
+    <row r="648" ht="15" spans="1:1">
+      <c r="A648" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="649" ht="15" spans="1:1">
+      <c r="A649" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="2"/>
+    </row>
+    <row r="651" ht="15" spans="1:1">
+      <c r="A651" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="652" ht="15" spans="1:1">
+      <c r="A652" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="2"/>
+    </row>
+    <row r="654" ht="15" spans="1:1">
+      <c r="A654" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="655" ht="15" spans="1:1">
+      <c r="A655" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="2"/>
+    </row>
+    <row r="657" ht="15" spans="1:1">
+      <c r="A657" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="658" ht="15" spans="1:1">
+      <c r="A658" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="2"/>
+    </row>
+    <row r="660" ht="15" spans="1:1">
+      <c r="A660" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="661" ht="15" spans="1:1">
+      <c r="A661" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="2"/>
+    </row>
+    <row r="663" ht="15" spans="1:1">
+      <c r="A663" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="664" ht="15" spans="1:1">
+      <c r="A664" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="2"/>
+    </row>
+    <row r="666" ht="15" spans="1:1">
+      <c r="A666" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="667" ht="15" spans="1:1">
+      <c r="A667" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="2"/>
+    </row>
+    <row r="669" ht="15" spans="1:1">
+      <c r="A669" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="670" ht="15" spans="1:1">
+      <c r="A670" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="2"/>
+    </row>
+    <row r="672" ht="15" spans="1:1">
+      <c r="A672" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="673" ht="15" spans="1:1">
+      <c r="A673" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="2"/>
+    </row>
+    <row r="675" ht="15" spans="1:1">
+      <c r="A675" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="676" ht="15" spans="1:1">
+      <c r="A676" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="2"/>
+    </row>
+    <row r="678" ht="15" spans="1:1">
+      <c r="A678" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="679" ht="15" spans="1:1">
+      <c r="A679" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="2"/>
+    </row>
+    <row r="681" ht="15" spans="1:1">
+      <c r="A681" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="682" ht="15" spans="1:1">
+      <c r="A682" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="2"/>
+    </row>
+    <row r="684" ht="15" spans="1:1">
+      <c r="A684" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="685" ht="15" spans="1:1">
+      <c r="A685" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="2"/>
+    </row>
+    <row r="687" ht="15" spans="1:1">
+      <c r="A687" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="688" ht="15" spans="1:1">
+      <c r="A688" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="2"/>
+    </row>
+    <row r="690" ht="15" spans="1:1">
+      <c r="A690" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="691" ht="15" spans="1:1">
+      <c r="A691" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="2"/>
+    </row>
+    <row r="693" ht="15" spans="1:1">
+      <c r="A693" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="694" ht="15" spans="1:1">
+      <c r="A694" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="2"/>
+    </row>
+    <row r="696" ht="15" spans="1:1">
+      <c r="A696" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="697" ht="15" spans="1:1">
+      <c r="A697" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="2"/>
+    </row>
+    <row r="699" ht="15" spans="1:1">
+      <c r="A699" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="700" ht="15" spans="1:1">
+      <c r="A700" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="2"/>
+    </row>
+    <row r="702" ht="15" spans="1:1">
+      <c r="A702" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="703" ht="15" spans="1:1">
+      <c r="A703" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="2"/>
+    </row>
+    <row r="705" ht="15" spans="1:1">
+      <c r="A705" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="706" ht="15" spans="1:1">
+      <c r="A706" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="2"/>
+    </row>
+    <row r="708" ht="15" spans="1:1">
+      <c r="A708" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="709" ht="15" spans="1:1">
+      <c r="A709" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="2"/>
+    </row>
+    <row r="711" ht="15" spans="1:1">
+      <c r="A711" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="712" ht="15" spans="1:1">
+      <c r="A712" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="713" ht="15" spans="1:1">
+      <c r="A713" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="2"/>
+    </row>
+    <row r="715" ht="15" spans="1:1">
+      <c r="A715" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="716" ht="15" spans="1:1">
+      <c r="A716" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="2"/>
+    </row>
+    <row r="718" ht="15" spans="1:1">
+      <c r="A718" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="719" ht="15" spans="1:1">
+      <c r="A719" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="720" ht="15" spans="1:1">
+      <c r="A720" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="2"/>
+    </row>
+    <row r="722" ht="15" spans="1:1">
+      <c r="A722" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="723" ht="15" spans="1:1">
+      <c r="A723" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="724" ht="15" spans="1:1">
+      <c r="A724" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="2"/>
+    </row>
+    <row r="726" ht="15" spans="1:1">
+      <c r="A726" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="727" ht="15" spans="1:1">
+      <c r="A727" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="2"/>
+    </row>
+    <row r="729" ht="15" spans="1:1">
+      <c r="A729" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="730" ht="15" spans="1:1">
+      <c r="A730" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="2"/>
+    </row>
+    <row r="732" ht="15" spans="1:1">
+      <c r="A732" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="733" ht="15" spans="1:1">
+      <c r="A733" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="734" ht="15" spans="1:1">
+      <c r="A734" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="2"/>
+    </row>
+    <row r="736" ht="15" spans="1:1">
+      <c r="A736" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="737" ht="15" spans="1:1">
+      <c r="A737" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="2"/>
+    </row>
+    <row r="739" ht="15" spans="1:1">
+      <c r="A739" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="740" ht="15" spans="1:1">
+      <c r="A740" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="2"/>
+    </row>
+    <row r="742" ht="15" spans="1:1">
+      <c r="A742" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="743" ht="15" spans="1:1">
+      <c r="A743" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="2"/>
+    </row>
+    <row r="745" ht="15" spans="1:1">
+      <c r="A745" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="746" ht="15" spans="1:1">
+      <c r="A746" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="2"/>
+    </row>
+    <row r="748" ht="15" spans="1:1">
+      <c r="A748" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="749" ht="15" spans="1:1">
+      <c r="A749" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="2"/>
+    </row>
+    <row r="751" ht="15" spans="1:1">
+      <c r="A751" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="752" ht="15" spans="1:1">
+      <c r="A752" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="753" ht="15" spans="1:1">
+      <c r="A753" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="2"/>
+    </row>
+    <row r="755" ht="15" spans="1:1">
+      <c r="A755" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="756" ht="15" spans="1:1">
+      <c r="A756" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="2"/>
+    </row>
+    <row r="758" ht="15" spans="1:1">
+      <c r="A758" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="759" ht="15" spans="1:1">
+      <c r="A759" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="2"/>
+    </row>
+    <row r="761" ht="15" spans="1:1">
+      <c r="A761" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="762" ht="15" spans="1:1">
+      <c r="A762" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="2"/>
+    </row>
+    <row r="764" ht="15" spans="1:1">
+      <c r="A764" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="765" ht="15" spans="1:1">
+      <c r="A765" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="2"/>
+    </row>
+    <row r="767" ht="15" spans="1:1">
+      <c r="A767" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="768" ht="15" spans="1:1">
+      <c r="A768" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="2"/>
+    </row>
+    <row r="770" ht="15" spans="1:1">
+      <c r="A770" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="771" ht="15" spans="1:1">
+      <c r="A771" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="2"/>
+    </row>
+    <row r="773" ht="15" spans="1:1">
+      <c r="A773" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="774" ht="15" spans="1:1">
+      <c r="A774" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="2"/>
+    </row>
+    <row r="776" ht="15" spans="1:1">
+      <c r="A776" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="777" ht="15" spans="1:1">
+      <c r="A777" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="2"/>
+    </row>
+    <row r="779" ht="15" spans="1:1">
+      <c r="A779" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="780" ht="15" spans="1:1">
+      <c r="A780" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="2"/>
+    </row>
+    <row r="782" ht="15" spans="1:1">
+      <c r="A782" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="783" ht="15" spans="1:1">
+      <c r="A783" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="2"/>
+    </row>
+    <row r="785" ht="15" spans="1:1">
+      <c r="A785" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="786" ht="15" spans="1:1">
+      <c r="A786" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="2"/>
+    </row>
+    <row r="788" ht="15" spans="1:1">
+      <c r="A788" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="789" ht="15" spans="1:1">
+      <c r="A789" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="2"/>
+    </row>
+    <row r="791" ht="15" spans="1:1">
+      <c r="A791" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="792" ht="15" spans="1:1">
+      <c r="A792" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="2"/>
+    </row>
+    <row r="794" ht="15" spans="1:1">
+      <c r="A794" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="795" ht="15" spans="1:1">
+      <c r="A795" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="2"/>
+    </row>
+    <row r="797" ht="15" spans="1:1">
+      <c r="A797" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="798" ht="15" spans="1:1">
+      <c r="A798" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="2"/>
+    </row>
+    <row r="800" ht="15" spans="1:1">
+      <c r="A800" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="801" ht="15" spans="1:1">
+      <c r="A801" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="2"/>
+    </row>
+    <row r="803" ht="15" spans="1:1">
+      <c r="A803" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="804" ht="15" spans="1:1">
+      <c r="A804" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="2"/>
+    </row>
+    <row r="806" ht="15" spans="1:1">
+      <c r="A806" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="807" ht="15" spans="1:1">
+      <c r="A807" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="2"/>
+    </row>
+    <row r="809" ht="15" spans="1:1">
+      <c r="A809" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="810" ht="15" spans="1:1">
+      <c r="A810" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="2"/>
+    </row>
+    <row r="812" ht="15" spans="1:1">
+      <c r="A812" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="813" ht="15" spans="1:1">
+      <c r="A813" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="2"/>
+    </row>
+    <row r="815" ht="15" spans="1:1">
+      <c r="A815" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="816" ht="15" spans="1:1">
+      <c r="A816" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="2"/>
+    </row>
+    <row r="818" ht="15" spans="1:1">
+      <c r="A818" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="819" ht="15" spans="1:1">
+      <c r="A819" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="2"/>
+    </row>
+    <row r="821" ht="15" spans="1:1">
+      <c r="A821" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="822" ht="15" spans="1:1">
+      <c r="A822" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="2"/>
+    </row>
+    <row r="824" ht="15" spans="1:1">
+      <c r="A824" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="825" ht="15" spans="1:1">
+      <c r="A825" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="2"/>
+    </row>
+    <row r="827" ht="15" spans="1:1">
+      <c r="A827" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="828" ht="15" spans="1:1">
+      <c r="A828" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="2"/>
+    </row>
+    <row r="830" ht="15" spans="1:1">
+      <c r="A830" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="831" ht="15" spans="1:1">
+      <c r="A831" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="2"/>
+    </row>
+    <row r="833" ht="15" spans="1:1">
+      <c r="A833" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="834" ht="15" spans="1:1">
+      <c r="A834" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="2"/>
+    </row>
+    <row r="836" ht="15" spans="1:1">
+      <c r="A836" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="837" ht="15" spans="1:1">
+      <c r="A837" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="2"/>
+    </row>
+    <row r="839" ht="15" spans="1:1">
+      <c r="A839" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="840" ht="15" spans="1:1">
+      <c r="A840" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="841" ht="15" spans="1:1">
+      <c r="A841" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="842" ht="15" spans="1:1">
+      <c r="A842" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="843" ht="15" spans="1:1">
+      <c r="A843" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="2"/>
+    </row>
+    <row r="845" ht="15" spans="1:1">
+      <c r="A845" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="846" ht="15" spans="1:1">
+      <c r="A846" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="847" ht="15" spans="1:1">
+      <c r="A847" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="2"/>
+    </row>
+    <row r="849" ht="15" spans="1:1">
+      <c r="A849" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="850" ht="15" spans="1:1">
+      <c r="A850" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="2"/>
+    </row>
+    <row r="852" ht="15" spans="1:1">
+      <c r="A852" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="853" ht="15" spans="1:1">
+      <c r="A853" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="2"/>
+    </row>
+    <row r="855" ht="15" spans="1:1">
+      <c r="A855" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="856" ht="15" spans="1:1">
+      <c r="A856" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="2"/>
+    </row>
+    <row r="858" ht="15" spans="1:1">
+      <c r="A858" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="859" ht="15" spans="1:1">
+      <c r="A859" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="2"/>
+    </row>
+    <row r="861" ht="15" spans="1:1">
+      <c r="A861" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="862" ht="15" spans="1:1">
+      <c r="A862" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="2"/>
+    </row>
+    <row r="864" ht="15" spans="1:1">
+      <c r="A864" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="865" ht="15" spans="1:1">
+      <c r="A865" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="2"/>
+    </row>
+    <row r="867" ht="15" spans="1:1">
+      <c r="A867" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="868" ht="15" spans="1:1">
+      <c r="A868" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="2"/>
+    </row>
+    <row r="870" ht="15" spans="1:1">
+      <c r="A870" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="871" ht="15" spans="1:1">
+      <c r="A871" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="2"/>
+    </row>
+    <row r="873" ht="15" spans="1:1">
+      <c r="A873" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="874" ht="15" spans="1:1">
+      <c r="A874" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="2"/>
+    </row>
+    <row r="876" ht="15" spans="1:1">
+      <c r="A876" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="877" ht="15" spans="1:1">
+      <c r="A877" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="2"/>
+    </row>
+    <row r="879" ht="15" spans="1:1">
+      <c r="A879" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="880" ht="15" spans="1:1">
+      <c r="A880" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="2"/>
+    </row>
+    <row r="882" ht="15" spans="1:1">
+      <c r="A882" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="883" ht="15" spans="1:1">
+      <c r="A883" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="2"/>
+    </row>
+    <row r="885" ht="15" spans="1:1">
+      <c r="A885" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="886" ht="15" spans="1:1">
+      <c r="A886" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="2"/>
+    </row>
+    <row r="888" ht="15" spans="1:1">
+      <c r="A888" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="889" ht="15" spans="1:1">
+      <c r="A889" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="2"/>
+    </row>
+    <row r="891" ht="15" spans="1:1">
+      <c r="A891" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="892" ht="15" spans="1:1">
+      <c r="A892" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="2"/>
+    </row>
+    <row r="894" ht="15" spans="1:1">
+      <c r="A894" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="895" ht="15" spans="1:1">
+      <c r="A895" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="2"/>
+    </row>
+    <row r="897" ht="15" spans="1:1">
+      <c r="A897" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="898" ht="15" spans="1:1">
+      <c r="A898" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="2"/>
+    </row>
+    <row r="900" ht="15" spans="1:1">
+      <c r="A900" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="901" ht="15" spans="1:1">
+      <c r="A901" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="2"/>
+    </row>
+    <row r="903" ht="15" spans="1:1">
+      <c r="A903" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="904" ht="15" spans="1:1">
+      <c r="A904" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="2"/>
+    </row>
+    <row r="906" ht="15" spans="1:1">
+      <c r="A906" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="907" ht="15" spans="1:1">
+      <c r="A907" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="2"/>
+    </row>
+    <row r="909" ht="15" spans="1:1">
+      <c r="A909" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="910" ht="15" spans="1:1">
+      <c r="A910" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="2"/>
+    </row>
+    <row r="912" ht="15" spans="1:1">
+      <c r="A912" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="913" ht="15" spans="1:1">
+      <c r="A913" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="2"/>
+    </row>
+    <row r="915" ht="15" spans="1:1">
+      <c r="A915" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="916" ht="15" spans="1:1">
+      <c r="A916" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="2"/>
+    </row>
+    <row r="918" ht="15" spans="1:1">
+      <c r="A918" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="919" ht="15" spans="1:1">
+      <c r="A919" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="2"/>
+    </row>
+    <row r="921" ht="15" spans="1:1">
+      <c r="A921" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="922" ht="15" spans="1:1">
+      <c r="A922" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="2"/>
+    </row>
+    <row r="924" ht="15" spans="1:1">
+      <c r="A924" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="925" ht="15" spans="1:1">
+      <c r="A925" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="2"/>
+    </row>
+    <row r="927" ht="15" spans="1:1">
+      <c r="A927" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="928" ht="15" spans="1:1">
+      <c r="A928" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="2"/>
+    </row>
+    <row r="930" ht="15" spans="1:1">
+      <c r="A930" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="931" ht="15" spans="1:1">
+      <c r="A931" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="2"/>
+    </row>
+    <row r="933" ht="15" spans="1:1">
+      <c r="A933" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="934" ht="15" spans="1:1">
+      <c r="A934" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="2"/>
+    </row>
+    <row r="936" ht="15" spans="1:1">
+      <c r="A936" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="937" ht="15" spans="1:1">
+      <c r="A937" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="2"/>
+    </row>
+    <row r="939" ht="15" spans="1:1">
+      <c r="A939" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="940" ht="15" spans="1:1">
+      <c r="A940" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="2"/>
+    </row>
+    <row r="942" ht="15" spans="1:1">
+      <c r="A942" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="943" ht="15" spans="1:1">
+      <c r="A943" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="2"/>
+    </row>
+    <row r="945" ht="15" spans="1:1">
+      <c r="A945" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="946" ht="15" spans="1:1">
+      <c r="A946" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="2"/>
+    </row>
+    <row r="948" ht="15" spans="1:1">
+      <c r="A948" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="949" ht="15" spans="1:1">
+      <c r="A949" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="2"/>
+    </row>
+    <row r="951" ht="15" spans="1:1">
+      <c r="A951" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="952" ht="15" spans="1:1">
+      <c r="A952" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="2"/>
+    </row>
+    <row r="954" ht="15" spans="1:1">
+      <c r="A954" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="955" ht="15" spans="1:1">
+      <c r="A955" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="2"/>
+    </row>
+    <row r="957" ht="15" spans="1:1">
+      <c r="A957" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="958" ht="15" spans="1:1">
+      <c r="A958" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="2"/>
+    </row>
+    <row r="960" ht="15" spans="1:1">
+      <c r="A960" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="961" ht="15" spans="1:1">
+      <c r="A961" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="2"/>
+    </row>
+    <row r="963" ht="15" spans="1:1">
+      <c r="A963" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="964" ht="15" spans="1:1">
+      <c r="A964" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="2"/>
+    </row>
+    <row r="966" ht="15" spans="1:1">
+      <c r="A966" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="967" ht="15" spans="1:1">
+      <c r="A967" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="2"/>
+    </row>
+    <row r="969" ht="15" spans="1:1">
+      <c r="A969" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="970" ht="15" spans="1:1">
+      <c r="A970" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="2"/>
+    </row>
+    <row r="972" ht="15" spans="1:1">
+      <c r="A972" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="973" ht="15" spans="1:1">
+      <c r="A973" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="2"/>
+    </row>
+    <row r="975" ht="15" spans="1:1">
+      <c r="A975" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="976" ht="15" spans="1:1">
+      <c r="A976" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="2"/>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>978</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>979</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>